--- a/medicine/Mort/Cimetière_national_de_fort_Snelling/Cimetière_national_de_fort_Snelling.xlsx
+++ b/medicine/Mort/Cimetière_national_de_fort_Snelling/Cimetière_national_de_fort_Snelling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_fort_Snelling</t>
+          <t>Cimetière_national_de_fort_Snelling</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière national de fort Snelling est un cimetière national des États-Unis situé à Fort Snelling, juste au sud de Minneapolis dans le comté de Hennepin, au Minnesota. Il est le plus ancien des deux cimetières de l'État. Administré par le département des États-Unis des affaires des anciens combattants, il s'entend sur 436,3 acres (176,6 ha), et en 2017 contenait plus de 225 000 inhumations. Il est inscrit sur le Registre national des lieux historiques en 2016.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_fort_Snelling</t>
+          <t>Cimetière_national_de_fort_Snelling</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fort Snelling est un fort de frontière créé la première fois en 1819. Son objectif initial est de maintenir la paix sur ce qui est alors la frontière de l'Ouest. Au cours de la guerre de Sécession, il sert en tant que camp de recrutement de la région pour les volontaires du Minnesota. Le cimetière est officiellement créé en 1870.
 En 1937, les citoyens de St. Paul demandent au Congrès la construction d'un cimetière national dans la région. Deux ans plus tard, le nouveau tracé est consacré, et les sépultures du cimetière du poste d'origine sont déplacées. En 1960, la base aérienne de fort Snelling libère 146 acres (59,1 ha) pour le cimetière ; 177 acres (71,6 ha) supplémentaire sont acquis en 1961, portant le cimetière à sa taille actuelle.
-Il existait une tradition consistant à placer un drapeau sur chaque tombe lors du Memorial Day, mais lorsque la taille du cimetière a augmenté, le personnel a été contraint de l'abandonner. En 2017, l'organisation à but non lucratif Flags for Fort Snelling (drapeaux pour le fort Snelling) a tenté de faire revivre cette tradition[1].
+Il existait une tradition consistant à placer un drapeau sur chaque tombe lors du Memorial Day, mais lorsque la taille du cimetière a augmenté, le personnel a été contraint de l'abandonner. En 2017, l'organisation à but non lucratif Flags for Fort Snelling (drapeaux pour le fort Snelling) a tenté de faire revivre cette tradition.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_fort_Snelling</t>
+          <t>Cimetière_national_de_fort_Snelling</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Inhumations notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Récipiendaire de la médaille d'honneur
 Second lieutenant Donald E. Rudolph, Sr., U.S. Army, pour son action lors de la bataille de Luçon pendant la seconde guerre mondiale.
@@ -566,10 +582,10 @@
 Ernest Lundeen, membre du Congrès des États-Unis.
 John Mariucci, coach de hockey, membre du Hall of Fame du hockey des États-Unis.
 Bruce P. Smith, joueur de football de 1941, vainqueur du trophée Heisman.
-David C. Sutherland III, artiste de jeu[2].
+David C. Sutherland III, artiste de jeu.
 Commandant Tim Vakoc, aumônier de l'US Army blessé mortellement à Mosul lors de la guerre d'Iraq.
-Soldat Tracie McBride, victime de viol et de meurtre[3]
-Le cimetière contient une tombe de guerre du Commonwealth britannique, aviateur de la Royal Canadian Air Force de la seconde guerre mondiale[4].</t>
+Soldat Tracie McBride, victime de viol et de meurtre
+Le cimetière contient une tombe de guerre du Commonwealth britannique, aviateur de la Royal Canadian Air Force de la seconde guerre mondiale.</t>
         </is>
       </c>
     </row>
